--- a/spring/spring事务管理.xlsx
+++ b/spring/spring事务管理.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\spring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1032BAC-F02C-4D59-8E75-BE3B06B40962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="13410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,25 +22,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>不生动 ，不好读</t>
   </si>
   <si>
     <t>http://blog.csdn.net/bao19901210/article/details/41724355</t>
   </si>
+  <si>
+    <t>https://juejin.im/post/5b00c52ef265da0b95276091</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5b010f27518825426539ba38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,345 +59,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -397,324 +96,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -730,13 +150,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -772,13 +198,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -814,13 +246,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -856,13 +294,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -898,13 +342,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -940,13 +390,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -982,13 +438,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1024,13 +486,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1066,13 +534,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1108,13 +582,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1150,13 +630,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1192,13 +678,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,13 +726,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1276,13 +774,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1318,13 +822,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1360,13 +870,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1402,13 +918,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1444,13 +966,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1486,13 +1014,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1528,13 +1062,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1570,13 +1110,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1612,13 +1158,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1654,13 +1206,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1696,13 +1254,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1738,13 +1302,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1780,13 +1350,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1822,13 +1398,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1864,13 +1446,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1906,13 +1494,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1929,6 +1523,1326 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8646</xdr:colOff>
+      <xdr:row>715</xdr:row>
+      <xdr:rowOff>85479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5E177E-1E5E-4D9C-AE13-56DD2EF03650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="120700800"/>
+          <a:ext cx="7028571" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>715</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>199133</xdr:colOff>
+      <xdr:row>742</xdr:row>
+      <xdr:rowOff>37536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BE9B58-FE8A-4A24-B1DE-6EE63F1AA40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="122739150"/>
+          <a:ext cx="7133333" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>743</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>170561</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>66120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162A9168-65F8-4A15-9CA5-F4BF83B076F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="127473075"/>
+          <a:ext cx="7114286" cy="4438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>163221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>804</xdr:row>
+      <xdr:rowOff>56469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831A365C-9788-4E01-80BC-D759052CBCF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="132351171"/>
+          <a:ext cx="6686550" cy="5551098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>56253</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>151812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A5F78B-BE31-4479-A93D-44B90020F69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="138264900"/>
+          <a:ext cx="7171428" cy="4704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9115</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>76135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A289B479-9A7E-4496-BAE5-F69642B89DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="143741775"/>
+          <a:ext cx="3276190" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161246</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>104707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C540B07B-C19E-426C-AC03-24BEFAACC682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="144780000"/>
+          <a:ext cx="5428571" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104213</xdr:colOff>
+      <xdr:row>854</xdr:row>
+      <xdr:rowOff>123740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A05911-96F3-4C1E-B41E-ADFEDEB1F7B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="145865850"/>
+          <a:ext cx="4495238" cy="676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>856</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>122944</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>66311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2FF44C-E345-4D4A-B81D-011123EC0352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="146827875"/>
+          <a:ext cx="7047619" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>189277</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>66211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9403497A-0B83-4180-9938-D2BD488E1582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="149971125"/>
+          <a:ext cx="9780952" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>37226</xdr:colOff>
+      <xdr:row>925</xdr:row>
+      <xdr:rowOff>113763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64B9727-7EBA-4BBE-B1E4-158FA545BC0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="154409775"/>
+          <a:ext cx="6990476" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>928</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161021</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>75701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589AA189-5C20-4E8E-89B3-E431C7BA7A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="159134175"/>
+          <a:ext cx="7228571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>953</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>208620</xdr:colOff>
+      <xdr:row>975</xdr:row>
+      <xdr:rowOff>132865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4985FFBB-2505-4773-80B6-DB2639108955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="163420425"/>
+          <a:ext cx="7438095" cy="3876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>977</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>18149</xdr:colOff>
+      <xdr:row>1006</xdr:row>
+      <xdr:rowOff>18434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE84C6BB-376E-4F29-A71B-69D7C7B62DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="167573325"/>
+          <a:ext cx="7209524" cy="4923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>977</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37224</xdr:colOff>
+      <xdr:row>987</xdr:row>
+      <xdr:rowOff>161699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91DBBE5-7964-4EA8-82E2-546E004E4865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="167573325"/>
+          <a:ext cx="7009524" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>997</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>65799</xdr:colOff>
+      <xdr:row>1007</xdr:row>
+      <xdr:rowOff>133124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4296585-9454-48DF-900A-B8B747888040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="170973750"/>
+          <a:ext cx="7009524" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1018</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>84900</xdr:colOff>
+      <xdr:row>1026</xdr:row>
+      <xdr:rowOff>142699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143B064F-695E-4CFC-8CF5-96A4CDC983F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="174640875"/>
+          <a:ext cx="6600000" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1033</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>1058</xdr:row>
+      <xdr:rowOff>123290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3DD41B-AC99-4F41-8678-6CD5D0D879A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="177241200"/>
+          <a:ext cx="7257143" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1066</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56854</xdr:colOff>
+      <xdr:row>1069</xdr:row>
+      <xdr:rowOff>133282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D14119-BF46-447A-8144-48430534D55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="182870475"/>
+          <a:ext cx="2371429" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1072</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>199217</xdr:colOff>
+      <xdr:row>1104</xdr:row>
+      <xdr:rowOff>37425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16E6CD6-B2AE-4193-BC59-60DCA077797B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="183918225"/>
+          <a:ext cx="6466667" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1107</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180144</xdr:colOff>
+      <xdr:row>1120</xdr:row>
+      <xdr:rowOff>104498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98BCE90-7F21-4660-AB13-F02FA9A64678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="189909450"/>
+          <a:ext cx="6647619" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>84880</xdr:colOff>
+      <xdr:row>1154</xdr:row>
+      <xdr:rowOff>123155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E2E09E-5A48-451E-BC71-FC1C5ACA56DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="192614550"/>
+          <a:ext cx="6761905" cy="5361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1161</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>75754</xdr:colOff>
+      <xdr:row>1164</xdr:row>
+      <xdr:rowOff>114233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A57C16A-BD41-4ED8-A413-15EA873F98F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="199148700"/>
+          <a:ext cx="3571429" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1167</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>170583</xdr:colOff>
+      <xdr:row>1191</xdr:row>
+      <xdr:rowOff>66156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA56BB-D812-4721-8D63-42A59FC2A67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="200110725"/>
+          <a:ext cx="6933333" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1196</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>218209</xdr:colOff>
+      <xdr:row>1214</xdr:row>
+      <xdr:rowOff>152004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC1CF2D-79C3-4941-87D1-E6958D19BB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="205120875"/>
+          <a:ext cx="6923809" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1217</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180145</xdr:colOff>
+      <xdr:row>1239</xdr:row>
+      <xdr:rowOff>9068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25743CA-74C0-4235-8584-34D4CE449C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="208778475"/>
+          <a:ext cx="6638095" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1241</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>46806</xdr:colOff>
+      <xdr:row>1266</xdr:row>
+      <xdr:rowOff>161374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE6BDCA-C30E-4B94-8178-D7F3E67A35D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="212807550"/>
+          <a:ext cx="6552381" cy="4409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1271</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56856</xdr:colOff>
+      <xdr:row>1273</xdr:row>
+      <xdr:rowOff>114249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AFAB53-81D9-45BD-9C52-E0EE42B7E6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="217960575"/>
+          <a:ext cx="2352381" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1277</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>189628</xdr:colOff>
+      <xdr:row>1302</xdr:row>
+      <xdr:rowOff>37565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF3794F-B70B-4B4B-A135-C88270A190C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="218989275"/>
+          <a:ext cx="6971428" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1305</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>199164</xdr:colOff>
+      <xdr:row>1327</xdr:row>
+      <xdr:rowOff>132863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D08942C-A24D-4D8D-86B0-0ECA2581CCAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="223751775"/>
+          <a:ext cx="6885714" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2217,74 +3131,82 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C34:C350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B34:C1064"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="AY271" sqref="AY271"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="F1308" sqref="F1308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="3:3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C350" s="1"/>
     </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B701" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1064" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B701" r:id="rId1" xr:uid="{05F0289E-6B96-49DE-AA4C-C822E5F0D53F}"/>
+    <hyperlink ref="C1064" r:id="rId2" xr:uid="{57F572B4-46C0-41F7-BE14-59A53DA6ED37}"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/spring/spring事务管理.xlsx
+++ b/spring/spring事务管理.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\spring\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1032BAC-F02C-4D59-8E75-BE3B06B40962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +25,22 @@
   </si>
   <si>
     <t>https://juejin.im/post/5b00c52ef265da0b95276091</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://juejin.im/post/5b010f27518825426539ba38</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,28 +65,337 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,12 +403,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -112,29 +658,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -150,19 +739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -198,19 +781,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -246,19 +823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -282,39 +853,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>132080</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="400050" y="7953375"/>
-          <a:ext cx="7837805" cy="4152265"/>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="7620000"/>
+          <a:ext cx="8413115" cy="4457065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -329,40 +894,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>46355</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="12534900"/>
-          <a:ext cx="7866380" cy="3304540"/>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="12506325"/>
+          <a:ext cx="8552180" cy="3304540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -390,19 +949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -425,39 +978,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="361950" y="17897475"/>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="17992725"/>
           <a:ext cx="7818755" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -473,39 +1020,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>217805</xdr:colOff>
+      <xdr:colOff>55880</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="20297775"/>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="20259675"/>
           <a:ext cx="7828280" cy="7904480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -521,39 +1062,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="28813125"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="28613100"/>
           <a:ext cx="7885430" cy="5076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -569,39 +1104,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>189865</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1571625" y="34318575"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="34128075"/>
           <a:ext cx="7600315" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -617,39 +1146,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>94615</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1438275" y="36118800"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="36004500"/>
           <a:ext cx="6819265" cy="7352665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -665,39 +1188,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>132715</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="44215050"/>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="44024550"/>
           <a:ext cx="6314440" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -713,39 +1230,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>272</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>113665</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
       <xdr:row>290</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="46634400"/>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="46482000"/>
           <a:ext cx="7486015" cy="3256915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -762,38 +1273,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>94615</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600075" y="52054125"/>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="50853975"/>
           <a:ext cx="7600315" cy="6276340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -809,39 +1314,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>344</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>8890</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="59093100"/>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="58416825"/>
           <a:ext cx="7552690" cy="5314315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,19 +1369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -918,19 +1411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -966,19 +1453,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1014,19 +1495,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,19 +1537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1110,19 +1579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1158,19 +1621,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1206,19 +1663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,19 +1705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1302,19 +1747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1350,19 +1789,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1398,19 +1831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1446,19 +1873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1494,19 +1915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1542,19 +1957,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5E177E-1E5E-4D9C-AE13-56DD2EF03650}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1562,7 +1971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="120700800"/>
-          <a:ext cx="7028571" cy="1971429"/>
+          <a:ext cx="7028180" cy="1971040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,19 +1995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BE9B58-FE8A-4A24-B1DE-6EE63F1AA40B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1606,7 +2009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="295275" y="122739150"/>
-          <a:ext cx="7133333" cy="4514286"/>
+          <a:ext cx="7132955" cy="4514215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,19 +2033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162A9168-65F8-4A15-9CA5-F4BF83B076F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1650,7 +2047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285750" y="127473075"/>
-          <a:ext cx="7114286" cy="4438095"/>
+          <a:ext cx="7113905" cy="4438015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,27 +2071,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831A365C-9788-4E01-80BC-D759052CBCF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="400050" y="132351171"/>
-          <a:ext cx="6686550" cy="5551098"/>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="132351145"/>
+          <a:ext cx="6686550" cy="5550535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,19 +2109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A5F78B-BE31-4479-A93D-44B90020F69B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1738,7 +2123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="333375" y="138264900"/>
-          <a:ext cx="7171428" cy="4704762"/>
+          <a:ext cx="7171055" cy="4704715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,39 +2135,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37690</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>18985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="143684625"/>
+          <a:ext cx="3275965" cy="523240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>838</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9115</xdr:colOff>
-      <xdr:row>841</xdr:row>
-      <xdr:rowOff>76135</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A289B479-9A7E-4496-BAE5-F69642B89DB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="143741775"/>
-          <a:ext cx="3276190" cy="523810"/>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189821</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>114232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="144789525"/>
+          <a:ext cx="5427980" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,84 +2210,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>844</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>850</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>161246</xdr:colOff>
-      <xdr:row>847</xdr:row>
-      <xdr:rowOff>104707</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C540B07B-C19E-426C-AC03-24BEFAACC682}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="209550" y="144780000"/>
-          <a:ext cx="5428571" cy="542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>850</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>104213</xdr:colOff>
+      <xdr:colOff>18488</xdr:colOff>
       <xdr:row>854</xdr:row>
-      <xdr:rowOff>123740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A05911-96F3-4C1E-B41E-ADFEDEB1F7B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="145865850"/>
-          <a:ext cx="4495238" cy="676190"/>
+      <xdr:rowOff>66590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="145808700"/>
+          <a:ext cx="4495165" cy="675640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,19 +2261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2FF44C-E345-4D4A-B81D-011123EC0352}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1914,7 +2275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="304800" y="146827875"/>
-          <a:ext cx="7047619" cy="2914286"/>
+          <a:ext cx="7047230" cy="2914015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,19 +2299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9403497A-0B83-4180-9938-D2BD488E1582}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1958,7 +2313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="149971125"/>
-          <a:ext cx="9780952" cy="3714286"/>
+          <a:ext cx="9780905" cy="3714115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,19 +2337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64B9727-7EBA-4BBE-B1E4-158FA545BC0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2002,7 +2351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="714375" y="154409775"/>
-          <a:ext cx="6990476" cy="4295238"/>
+          <a:ext cx="6990080" cy="4295140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2026,19 +2375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589AA189-5C20-4E8E-89B3-E431C7BA7A4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2046,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600075" y="159134175"/>
-          <a:ext cx="7228571" cy="3990476"/>
+          <a:ext cx="7228205" cy="3990340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,19 +2413,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4985FFBB-2505-4773-80B6-DB2639108955}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2090,7 +2427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="657225" y="163420425"/>
-          <a:ext cx="7438095" cy="3876190"/>
+          <a:ext cx="7437755" cy="3876040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2114,19 +2451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE84C6BB-376E-4F29-A71B-69D7C7B62DFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2134,7 +2465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="476250" y="167573325"/>
-          <a:ext cx="7209524" cy="4923809"/>
+          <a:ext cx="7209155" cy="4923790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2158,19 +2489,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91DBBE5-7964-4EA8-82E2-546E004E4865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2178,7 +2503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="476250" y="167573325"/>
-          <a:ext cx="7009524" cy="1809524"/>
+          <a:ext cx="7009130" cy="1809115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,19 +2527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4296585-9454-48DF-900A-B8B747888040}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2222,7 +2541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504825" y="170973750"/>
-          <a:ext cx="7009524" cy="1809524"/>
+          <a:ext cx="7009130" cy="1809115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,19 +2565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143B064F-695E-4CFC-8CF5-96A4CDC983F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2266,7 +2579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="276225" y="174640875"/>
-          <a:ext cx="6600000" cy="1409524"/>
+          <a:ext cx="6599555" cy="1409065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2290,19 +2603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3DD41B-AC99-4F41-8678-6CD5D0D879A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2310,7 +2617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="304800" y="177241200"/>
-          <a:ext cx="7257143" cy="4276190"/>
+          <a:ext cx="7256780" cy="4276090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,19 +2641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D14119-BF46-447A-8144-48430534D55D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2354,7 +2655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="314325" y="182870475"/>
-          <a:ext cx="2371429" cy="542857"/>
+          <a:ext cx="2371090" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,19 +2679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16E6CD6-B2AE-4193-BC59-60DCA077797B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2398,7 +2693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="304800" y="183918225"/>
-          <a:ext cx="6466667" cy="5400000"/>
+          <a:ext cx="6466205" cy="5399405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2422,19 +2717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98BCE90-7F21-4660-AB13-F02FA9A64678}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2442,7 +2731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="323850" y="189909450"/>
-          <a:ext cx="6647619" cy="2219048"/>
+          <a:ext cx="6647180" cy="2218690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,19 +2755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E2E09E-5A48-451E-BC71-FC1C5ACA56DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2486,7 +2769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="333375" y="192614550"/>
-          <a:ext cx="6761905" cy="5361905"/>
+          <a:ext cx="6761480" cy="5361305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2510,19 +2793,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A57C16A-BD41-4ED8-A413-15EA873F98F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2530,7 +2807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="447675" y="199148700"/>
-          <a:ext cx="3571429" cy="533333"/>
+          <a:ext cx="3571240" cy="532765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,19 +2831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA56BB-D812-4721-8D63-42A59FC2A67A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2574,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="466725" y="200110725"/>
-          <a:ext cx="6933333" cy="4152381"/>
+          <a:ext cx="6932930" cy="4152265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,19 +2869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC1CF2D-79C3-4941-87D1-E6958D19BB67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2618,7 +2883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="523875" y="205120875"/>
-          <a:ext cx="6923809" cy="3171429"/>
+          <a:ext cx="6923405" cy="3171190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,19 +2907,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25743CA-74C0-4235-8584-34D4CE449C2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2662,7 +2921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="552450" y="208778475"/>
-          <a:ext cx="6638095" cy="3657143"/>
+          <a:ext cx="6637655" cy="3656965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,19 +2945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE6BDCA-C30E-4B94-8178-D7F3E67A35D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2706,7 +2959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504825" y="212807550"/>
-          <a:ext cx="6552381" cy="4409524"/>
+          <a:ext cx="6551930" cy="4409440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2730,19 +2983,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AFAB53-81D9-45BD-9C52-E0EE42B7E6B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2750,7 +2997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="552450" y="217960575"/>
-          <a:ext cx="2352381" cy="409524"/>
+          <a:ext cx="2352040" cy="408940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,19 +3021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF3794F-B70B-4B4B-A135-C88270A190C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2794,7 +3035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="447675" y="218989275"/>
-          <a:ext cx="6971428" cy="4276190"/>
+          <a:ext cx="6971030" cy="4276090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2818,19 +3059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D08942C-A24D-4D8D-86B0-0ECA2581CCAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2838,7 +3073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="542925" y="223751775"/>
-          <a:ext cx="6885714" cy="3895238"/>
+          <a:ext cx="6885305" cy="3895090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,82 +3366,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B34:C1064"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="F1308" sqref="F1308"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1334" workbookViewId="0">
+      <selection activeCell="AB851" sqref="AB851"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="350" spans="3:3">
       <c r="C350" s="1"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:2">
       <c r="B701" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1064" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="1064" spans="3:3">
       <c r="C1064" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B701" r:id="rId1" xr:uid="{05F0289E-6B96-49DE-AA4C-C822E5F0D53F}"/>
-    <hyperlink ref="C1064" r:id="rId2" xr:uid="{57F572B4-46C0-41F7-BE14-59A53DA6ED37}"/>
+    <hyperlink ref="B701" r:id="rId2" display="https://juejin.im/post/5b00c52ef265da0b95276091"/>
+    <hyperlink ref="C1064" r:id="rId3" display="https://juejin.im/post/5b010f27518825426539ba38"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>